--- a/wip/res/optimal_N2_K1.xlsx
+++ b/wip/res/optimal_N2_K1.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tutorial\Desktop\FPL_Python_Optimization\wip\res\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA49A228-4B9F-41EF-AE1E-770209F2FC3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="1" r:id="rId1"/>
     <sheet name="AvgRating" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -380,8 +386,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,6 +450,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -490,7 +504,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -522,9 +536,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -556,6 +588,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -731,14 +781,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -770,7 +822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -802,7 +854,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -834,7 +886,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -866,7 +918,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -898,7 +950,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -930,7 +982,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,7 +1014,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -994,7 +1046,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,7 +1078,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1058,7 +1110,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1090,7 +1142,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1122,7 +1174,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1154,7 +1206,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1186,7 +1238,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1218,7 +1270,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1250,7 +1302,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1282,7 +1334,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1314,7 +1366,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1346,7 +1398,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1378,7 +1430,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1410,7 +1462,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1442,7 +1494,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1474,7 +1526,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1506,7 +1558,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1538,7 +1590,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1570,7 +1622,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1602,7 +1654,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1634,7 +1686,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1666,7 +1718,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1698,7 +1750,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1727,7 +1779,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -1753,7 +1805,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,7 +1828,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -1796,7 +1848,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -1813,7 +1865,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -1827,7 +1879,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -1838,7 +1890,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -1852,14 +1904,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1891,71 +1943,71 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>52.08574319336238</v>
+        <v>52.085743193362383</v>
       </c>
       <c r="C2">
-        <v>55.46115297424264</v>
+        <v>55.461152974242637</v>
       </c>
       <c r="D2">
-        <v>57.12734016527215</v>
+        <v>57.127340165272152</v>
       </c>
       <c r="E2">
-        <v>58.66757708908479</v>
+        <v>58.667577089084787</v>
       </c>
       <c r="F2">
         <v>58.22832911844921</v>
       </c>
       <c r="G2">
-        <v>60.38973079162899</v>
+        <v>60.389730791628992</v>
       </c>
       <c r="H2">
-        <v>60.66700171832021</v>
+        <v>60.667001718320208</v>
       </c>
       <c r="I2">
-        <v>59.92631468749664</v>
+        <v>59.926314687496642</v>
       </c>
       <c r="J2">
-        <v>60.4466604763554</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>60.446660476355397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>51.19491043776244</v>
+        <v>51.194910437762438</v>
       </c>
       <c r="C3">
-        <v>56.45957422689571</v>
+        <v>56.459574226895711</v>
       </c>
       <c r="D3">
-        <v>58.29226744302004</v>
+        <v>58.292267443020037</v>
       </c>
       <c r="E3">
-        <v>58.33878664209042</v>
+        <v>58.338786642090419</v>
       </c>
       <c r="F3">
-        <v>60.15344595905326</v>
+        <v>60.153445959053258</v>
       </c>
       <c r="G3">
-        <v>60.11922257046684</v>
+        <v>60.119222570466839</v>
       </c>
       <c r="H3">
-        <v>60.20759883590333</v>
+        <v>60.207598835903333</v>
       </c>
       <c r="I3">
-        <v>61.01176307998824</v>
+        <v>61.011763079988242</v>
       </c>
       <c r="J3">
         <v>60.84947180932231</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1963,31 +2015,31 @@
         <v>53.58337507234198</v>
       </c>
       <c r="C4">
-        <v>57.9669061718169</v>
+        <v>57.966906171816902</v>
       </c>
       <c r="D4">
-        <v>57.99450345152039</v>
+        <v>57.994503451520387</v>
       </c>
       <c r="E4">
-        <v>59.54549922503835</v>
+        <v>59.545499225038348</v>
       </c>
       <c r="F4">
-        <v>60.06737516141074</v>
+        <v>60.067375161410737</v>
       </c>
       <c r="G4">
         <v>59.19088753875122</v>
       </c>
       <c r="H4">
-        <v>60.03438135564778</v>
+        <v>60.034381355647781</v>
       </c>
       <c r="I4">
-        <v>59.9626556909457</v>
+        <v>59.962655690945702</v>
       </c>
       <c r="J4">
-        <v>59.26404771674736</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>59.264047716747363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1995,31 +2047,31 @@
         <v>53.58337507234198</v>
       </c>
       <c r="C5">
-        <v>54.88447863003785</v>
+        <v>54.884478630037847</v>
       </c>
       <c r="D5">
-        <v>57.37049016861223</v>
+        <v>57.370490168612228</v>
       </c>
       <c r="E5">
-        <v>58.43174310354433</v>
+        <v>58.431743103544328</v>
       </c>
       <c r="F5">
-        <v>57.6817795534193</v>
+        <v>57.681779553419297</v>
       </c>
       <c r="G5">
-        <v>58.32894997950272</v>
+        <v>58.328949979502717</v>
       </c>
       <c r="H5">
-        <v>58.461437528731</v>
+        <v>58.461437528730997</v>
       </c>
       <c r="I5">
-        <v>58.68211349046442</v>
+        <v>58.682113490464417</v>
       </c>
       <c r="J5">
-        <v>58.64864151360346</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>58.648641513603458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2027,31 +2079,31 @@
         <v>53.58337507234198</v>
       </c>
       <c r="C6">
-        <v>55.93454236127642</v>
+        <v>55.934542361276421</v>
       </c>
       <c r="D6">
-        <v>57.94286097293489</v>
+        <v>57.942860972934888</v>
       </c>
       <c r="E6">
-        <v>57.72079831501723</v>
+        <v>57.720798315017227</v>
       </c>
       <c r="F6">
-        <v>57.44365034660836</v>
+        <v>57.443650346608358</v>
       </c>
       <c r="G6">
-        <v>58.81709436041807</v>
+        <v>58.817094360418068</v>
       </c>
       <c r="H6">
         <v>59.02089771340728</v>
       </c>
       <c r="I6">
-        <v>58.9460639365681</v>
+        <v>58.946063936568102</v>
       </c>
       <c r="J6">
-        <v>59.2588834688888</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>59.258883468888797</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2062,412 +2114,412 @@
         <v>56.52843086500971</v>
       </c>
       <c r="D7">
-        <v>55.9438666976877</v>
+        <v>55.943866697687703</v>
       </c>
       <c r="E7">
-        <v>57.24568751203059</v>
+        <v>57.245687512030592</v>
       </c>
       <c r="F7">
-        <v>57.85535566199835</v>
+        <v>57.855355661998352</v>
       </c>
       <c r="G7">
-        <v>57.15838713156462</v>
+        <v>57.158387131564623</v>
       </c>
       <c r="H7">
-        <v>57.30701295535088</v>
+        <v>57.307012955350878</v>
       </c>
       <c r="I7">
-        <v>59.43475479873833</v>
+        <v>59.434754798738332</v>
       </c>
       <c r="J7">
-        <v>59.2588834688888</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>59.258883468888797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>52.08574319336238</v>
+        <v>52.085743193362383</v>
       </c>
       <c r="C8">
-        <v>54.69512287522434</v>
+        <v>54.695122875224342</v>
       </c>
       <c r="D8">
         <v>55.39301359277566</v>
       </c>
       <c r="E8">
-        <v>55.98905386645001</v>
+        <v>55.989053866450007</v>
       </c>
       <c r="F8">
-        <v>55.4869742135354</v>
+        <v>55.486974213535397</v>
       </c>
       <c r="G8">
-        <v>55.89560557186672</v>
+        <v>55.895605571866717</v>
       </c>
       <c r="H8">
-        <v>58.5130800073165</v>
+        <v>58.513080007316503</v>
       </c>
       <c r="I8">
-        <v>58.5750031645093</v>
+        <v>58.575003164509297</v>
       </c>
       <c r="J8">
-        <v>58.7088910719532</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>58.708891071953197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>52.08574319336238</v>
+        <v>52.085743193362383</v>
       </c>
       <c r="C9">
-        <v>53.88605737738479</v>
+        <v>53.886057377384788</v>
       </c>
       <c r="D9">
-        <v>54.81849101851193</v>
+        <v>54.818491018511928</v>
       </c>
       <c r="E9">
-        <v>55.39000111485817</v>
+        <v>55.390001114858173</v>
       </c>
       <c r="F9">
-        <v>55.88289988269093</v>
+        <v>55.882899882690928</v>
       </c>
       <c r="G9">
-        <v>58.53674947666818</v>
+        <v>58.536749476668177</v>
       </c>
       <c r="H9">
-        <v>59.21240523816186</v>
+        <v>59.212405238161857</v>
       </c>
       <c r="I9">
-        <v>59.04169815617089</v>
+        <v>59.041698156170888</v>
       </c>
       <c r="J9">
-        <v>59.67890896138424</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>59.678908961384238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>52.08574319336238</v>
+        <v>52.085743193362383</v>
       </c>
       <c r="C10">
-        <v>55.43246270836181</v>
+        <v>55.432462708361811</v>
       </c>
       <c r="D10">
-        <v>55.99335740633214</v>
+        <v>55.993357406332137</v>
       </c>
       <c r="E10">
-        <v>56.46416466943665</v>
+        <v>56.464164669436649</v>
       </c>
       <c r="F10">
-        <v>59.46344506461916</v>
+        <v>59.463445064619158</v>
       </c>
       <c r="G10">
-        <v>59.39007995615246</v>
+        <v>59.390079956152462</v>
       </c>
       <c r="H10">
-        <v>59.79983843207196</v>
+        <v>59.799838432071958</v>
       </c>
       <c r="I10">
         <v>59.148808482126</v>
       </c>
       <c r="J10">
-        <v>60.43977481254399</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>60.439774812543988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>52.08574319336238</v>
+        <v>52.085743193362383</v>
       </c>
       <c r="C11">
         <v>53.94917596232262</v>
       </c>
       <c r="D11">
-        <v>55.04873040220563</v>
+        <v>55.048730402205628</v>
       </c>
       <c r="E11">
-        <v>58.93095372987086</v>
+        <v>58.930953729870858</v>
       </c>
       <c r="F11">
-        <v>59.30277957568649</v>
+        <v>59.302779575686493</v>
       </c>
       <c r="G11">
-        <v>59.46754367403071</v>
+        <v>59.467543674030708</v>
       </c>
       <c r="H11">
-        <v>59.05317426252321</v>
+        <v>59.053174262523207</v>
       </c>
       <c r="I11">
-        <v>60.49820732072128</v>
+        <v>60.498207320721278</v>
       </c>
       <c r="J11">
         <v>60.66958384224948</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>52.08574319336238</v>
+        <v>52.085743193362383</v>
       </c>
       <c r="C12">
-        <v>54.17296003619314</v>
+        <v>54.172960036193139</v>
       </c>
       <c r="D12">
-        <v>55.79754634169544</v>
+        <v>55.797546341695437</v>
       </c>
       <c r="E12">
-        <v>56.13537422244227</v>
+        <v>56.135374222442273</v>
       </c>
       <c r="F12">
-        <v>56.39215210207575</v>
+        <v>56.392152102075748</v>
       </c>
       <c r="G12">
-        <v>57.68095983153698</v>
+        <v>57.680959831536981</v>
       </c>
       <c r="H12">
-        <v>60.27103321545347</v>
+        <v>60.271033215453471</v>
       </c>
       <c r="I12">
-        <v>60.05637722615643</v>
+        <v>60.056377226156428</v>
       </c>
       <c r="J12">
-        <v>59.81314513873758</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>59.813145138737582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>52.08574319336238</v>
+        <v>52.085743193362383</v>
       </c>
       <c r="C13">
-        <v>54.94759721497569</v>
+        <v>54.947597214975687</v>
       </c>
       <c r="D13">
-        <v>55.58236934758917</v>
+        <v>55.582369347589172</v>
       </c>
       <c r="E13">
-        <v>56.13537422244227</v>
+        <v>56.135374222442273</v>
       </c>
       <c r="F13">
-        <v>57.90412911399577</v>
+        <v>57.904129113995772</v>
       </c>
       <c r="G13">
-        <v>59.92617806718292</v>
+        <v>59.926178067182917</v>
       </c>
       <c r="H13">
-        <v>60.01824308108981</v>
+        <v>60.018243081089807</v>
       </c>
       <c r="I13">
-        <v>59.80195212760306</v>
+        <v>59.801952127603059</v>
       </c>
       <c r="J13">
-        <v>60.1307806490074</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>60.130780649007399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>52.08574319336238</v>
+        <v>52.085743193362383</v>
       </c>
       <c r="C14">
-        <v>53.94917596232263</v>
+        <v>53.949175962322627</v>
       </c>
       <c r="D14">
-        <v>55.04873040220563</v>
+        <v>55.048730402205628</v>
       </c>
       <c r="E14">
-        <v>57.47635724971251</v>
+        <v>57.476357249712507</v>
       </c>
       <c r="F14">
-        <v>59.90670967247807</v>
+        <v>59.906709672478073</v>
       </c>
       <c r="G14">
-        <v>59.67775338403031</v>
+        <v>59.677753384030311</v>
       </c>
       <c r="H14">
-        <v>59.21451417439171</v>
+        <v>59.214514174391709</v>
       </c>
       <c r="I14">
-        <v>59.90332440038201</v>
+        <v>59.903324400382012</v>
       </c>
       <c r="J14">
-        <v>60.26505109332972</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>60.265051093329717</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>52.97657594896231</v>
+        <v>52.976575948962306</v>
       </c>
       <c r="C15">
-        <v>53.94917596232263</v>
+        <v>53.949175962322627</v>
       </c>
       <c r="D15">
-        <v>56.81533352381807</v>
+        <v>56.815333523818069</v>
       </c>
       <c r="E15">
-        <v>59.86396117631563</v>
+        <v>59.863961176315627</v>
       </c>
       <c r="F15">
-        <v>59.26972865830859</v>
+        <v>59.269728658308587</v>
       </c>
       <c r="G15">
-        <v>58.79860166525329</v>
+        <v>58.798601665253287</v>
       </c>
       <c r="H15">
-        <v>59.62550223313468</v>
+        <v>59.625502233134682</v>
       </c>
       <c r="I15">
-        <v>60.00856011635504</v>
+        <v>60.008560116355042</v>
       </c>
       <c r="J15">
-        <v>59.84244347690501</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>59.842443476905011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>52.08574319336238</v>
+        <v>52.085743193362383</v>
       </c>
       <c r="C16">
         <v>56.52843086500971</v>
       </c>
       <c r="D16">
-        <v>59.33290435486136</v>
+        <v>59.332904354861363</v>
       </c>
       <c r="E16">
-        <v>59.58846608992168</v>
+        <v>59.588466089921681</v>
       </c>
       <c r="F16">
-        <v>58.98569502608832</v>
+        <v>58.985695026088322</v>
       </c>
       <c r="G16">
-        <v>59.56345113426092</v>
+        <v>59.563451134260923</v>
       </c>
       <c r="H16">
-        <v>59.48460413570628</v>
+        <v>59.484604135706277</v>
       </c>
       <c r="I16">
-        <v>60.14340436599496</v>
+        <v>60.143404365994961</v>
       </c>
       <c r="J16">
-        <v>61.35126455957813</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>61.351264559578127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>51.19491043776244</v>
+        <v>51.194910437762438</v>
       </c>
       <c r="C17">
         <v>56.52843086500971</v>
       </c>
       <c r="D17">
-        <v>57.56414946330787</v>
+        <v>57.564149463307871</v>
       </c>
       <c r="E17">
-        <v>57.90154699006649</v>
+        <v>57.901546990066493</v>
       </c>
       <c r="F17">
         <v>59.15359019310614</v>
       </c>
       <c r="G17">
-        <v>59.89293037813657</v>
+        <v>59.892930378136569</v>
       </c>
       <c r="H17">
-        <v>59.91280635397774</v>
+        <v>59.912806353977743</v>
       </c>
       <c r="I17">
-        <v>60.14950674789691</v>
+        <v>60.149506747896908</v>
       </c>
       <c r="J17">
-        <v>59.8277771743368</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>59.827777174336802</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>52.08574319336238</v>
+        <v>52.085743193362383</v>
       </c>
       <c r="C18">
-        <v>54.9475972149757</v>
+        <v>54.947597214975701</v>
       </c>
       <c r="D18">
-        <v>56.82394060358232</v>
+        <v>56.823940603582322</v>
       </c>
       <c r="E18">
-        <v>58.54191372452674</v>
+        <v>58.541913724526736</v>
       </c>
       <c r="F18">
-        <v>58.96279992499859</v>
+        <v>58.962799924998592</v>
       </c>
       <c r="G18">
-        <v>58.87365517029742</v>
+        <v>58.873655170297418</v>
       </c>
       <c r="H18">
-        <v>60.45868990385362</v>
+        <v>60.458689903853617</v>
       </c>
       <c r="I18">
-        <v>60.78698458951174</v>
+        <v>60.786984589511739</v>
       </c>
       <c r="J18">
-        <v>60.54302550274603</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>60.543025502746033</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>52.08574319336238</v>
+        <v>52.085743193362383</v>
       </c>
       <c r="C19">
         <v>56.52843086500971</v>
       </c>
       <c r="D19">
-        <v>57.76211229788564</v>
+        <v>57.762112297885643</v>
       </c>
       <c r="E19">
-        <v>58.41625035996869</v>
+        <v>58.416250359968693</v>
       </c>
       <c r="F19">
-        <v>58.4033397403223</v>
+        <v>58.403339740322302</v>
       </c>
       <c r="G19">
-        <v>58.18631837198084</v>
+        <v>58.186318371980839</v>
       </c>
       <c r="H19">
-        <v>58.72933288639329</v>
+        <v>58.729332886393287</v>
       </c>
       <c r="I19">
         <v>58.68689520144455</v>
       </c>
       <c r="J19">
-        <v>57.93769672507634</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>57.937696725076343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2475,63 +2527,63 @@
         <v>53.58337507234198</v>
       </c>
       <c r="C20">
-        <v>56.19849280738011</v>
+        <v>56.198492807380113</v>
       </c>
       <c r="D20">
-        <v>56.56787998059586</v>
+        <v>56.567879980595862</v>
       </c>
       <c r="E20">
-        <v>57.36618662873011</v>
+        <v>57.366186628730112</v>
       </c>
       <c r="F20">
-        <v>58.55539814949072</v>
+        <v>58.555398149490721</v>
       </c>
       <c r="G20">
-        <v>59.12326048346068</v>
+        <v>59.123260483460683</v>
       </c>
       <c r="H20">
-        <v>59.02627713825994</v>
+        <v>59.026277138259942</v>
       </c>
       <c r="I20">
         <v>58.1561252826491</v>
       </c>
       <c r="J20">
-        <v>59.29159037199295</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>59.291590371992953</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>55.97183970692151</v>
+        <v>55.971839706921507</v>
       </c>
       <c r="C21">
-        <v>56.19849280738011</v>
+        <v>56.198492807380113</v>
       </c>
       <c r="D21">
-        <v>57.28872291085185</v>
+        <v>57.288722910851853</v>
       </c>
       <c r="E21">
-        <v>58.27337283588211</v>
+        <v>58.273372835882107</v>
       </c>
       <c r="F21">
-        <v>58.91546098629522</v>
+        <v>58.915460986295223</v>
       </c>
       <c r="G21">
-        <v>59.21916794369091</v>
+        <v>59.219167943690913</v>
       </c>
       <c r="H21">
-        <v>58.21613575544985</v>
+        <v>58.216135755449848</v>
       </c>
       <c r="I21">
         <v>59.78573238468055</v>
       </c>
       <c r="J21">
-        <v>60.5258456101865</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>60.525845610186501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -2539,31 +2591,31 @@
         <v>53.58337507234198</v>
       </c>
       <c r="C22">
-        <v>55.67632996834891</v>
+        <v>55.676329968348909</v>
       </c>
       <c r="D22">
-        <v>57.31024061026248</v>
+        <v>57.310240610262483</v>
       </c>
       <c r="E22">
-        <v>57.68464858000738</v>
+        <v>57.684648580007376</v>
       </c>
       <c r="F22">
-        <v>58.1766866398637</v>
+        <v>58.176686639863703</v>
       </c>
       <c r="G22">
-        <v>58.20107336586241</v>
+        <v>58.201073365862413</v>
       </c>
       <c r="H22">
-        <v>59.96875237244537</v>
+        <v>59.968752372445373</v>
       </c>
       <c r="I22">
-        <v>59.69296719166584</v>
+        <v>59.692967191665844</v>
       </c>
       <c r="J22">
-        <v>60.35284330692507</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>60.352843306925067</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -2571,31 +2623,31 @@
         <v>53.58337507234198</v>
       </c>
       <c r="C23">
-        <v>56.45957422689571</v>
+        <v>56.459574226895711</v>
       </c>
       <c r="D23">
         <v>56.57433529041905</v>
       </c>
       <c r="E23">
-        <v>57.38684362016431</v>
+        <v>57.386843620164314</v>
       </c>
       <c r="F23">
-        <v>57.54693530377937</v>
+        <v>57.546935303779371</v>
       </c>
       <c r="G23">
-        <v>59.66058817731461</v>
+        <v>59.660588177314608</v>
       </c>
       <c r="H23">
-        <v>59.38885037332899</v>
+        <v>59.388850373328992</v>
       </c>
       <c r="I23">
         <v>60.36240672888534</v>
       </c>
       <c r="J23">
-        <v>59.99220666480296</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>59.992206664802957</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -2603,147 +2655,147 @@
         <v>53.58337507234198</v>
       </c>
       <c r="C24">
-        <v>54.69512287522434</v>
+        <v>54.695122875224342</v>
       </c>
       <c r="D24">
-        <v>55.60819058688192</v>
+        <v>55.608190586881918</v>
       </c>
       <c r="E24">
-        <v>56.15603121387647</v>
+        <v>56.156031213876467</v>
       </c>
       <c r="F24">
-        <v>57.43504326684413</v>
+        <v>57.435043266844133</v>
       </c>
       <c r="G24">
-        <v>57.44242076378491</v>
+        <v>57.442420763784909</v>
       </c>
       <c r="H24">
-        <v>59.26942714160002</v>
+        <v>59.269427141600019</v>
       </c>
       <c r="I24">
-        <v>60.24955834975405</v>
+        <v>60.249558349754047</v>
       </c>
       <c r="J24">
-        <v>60.21082649081492</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>60.210826490814917</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>52.08574319336238</v>
+        <v>52.085743193362383</v>
       </c>
       <c r="C25">
-        <v>54.17296003619314</v>
+        <v>54.172960036193139</v>
       </c>
       <c r="D25">
         <v>54.60331402440567</v>
       </c>
       <c r="E25">
-        <v>56.44867192586099</v>
+        <v>56.448671925860992</v>
       </c>
       <c r="F25">
-        <v>57.03051051792434</v>
+        <v>57.030510517924341</v>
       </c>
       <c r="G25">
-        <v>59.17736212769313</v>
+        <v>59.177362127693129</v>
       </c>
       <c r="H25">
-        <v>59.1177273607551</v>
+        <v>59.117727360755097</v>
       </c>
       <c r="I25">
-        <v>59.37354889819254</v>
+        <v>59.373548898192539</v>
       </c>
       <c r="J25">
-        <v>59.18486258291625</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>59.184862582916253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>52.08574319336238</v>
+        <v>52.085743193362383</v>
       </c>
       <c r="C26">
-        <v>53.35528745858934</v>
+        <v>53.355287458589338</v>
       </c>
       <c r="D26">
-        <v>54.43547596900279</v>
+        <v>54.435475969002788</v>
       </c>
       <c r="E26">
-        <v>55.53632147085043</v>
+        <v>55.536321470850432</v>
       </c>
       <c r="F26">
-        <v>58.290013190093</v>
+        <v>58.290013190092999</v>
       </c>
       <c r="G26">
-        <v>59.28679499898145</v>
+        <v>59.286794998981449</v>
       </c>
       <c r="H26">
-        <v>60.05267140014681</v>
+        <v>60.052671400146806</v>
       </c>
       <c r="I26">
-        <v>60.07263504348889</v>
+        <v>60.072635043488887</v>
       </c>
       <c r="J26">
-        <v>60.27796171297608</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>60.277961712976079</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>51.19491043776244</v>
+        <v>51.194910437762438</v>
       </c>
       <c r="C27">
-        <v>53.35528745858934</v>
+        <v>53.355287458589338</v>
       </c>
       <c r="D27">
         <v>54.00942552067238</v>
       </c>
       <c r="E27">
-        <v>57.37135087658866</v>
+        <v>57.371350876588657</v>
       </c>
       <c r="F27">
-        <v>58.16377602021733</v>
+        <v>58.163776020217327</v>
       </c>
       <c r="G27">
-        <v>59.67903191966659</v>
+        <v>59.679031919666592</v>
       </c>
       <c r="H27">
-        <v>59.40498864788697</v>
+        <v>59.404988647886967</v>
       </c>
       <c r="I27">
-        <v>59.70731232460626</v>
+        <v>59.707312324606256</v>
       </c>
       <c r="J27">
-        <v>60.94242827077623</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>60.942428270776233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>52.08574319336238</v>
+        <v>52.085743193362383</v>
       </c>
       <c r="C28">
-        <v>53.38110869788209</v>
+        <v>53.381108697882091</v>
       </c>
       <c r="D28">
-        <v>56.16119546173503</v>
+        <v>56.161195461735034</v>
       </c>
       <c r="E28">
-        <v>57.35413671706016</v>
+        <v>57.354136717060157</v>
       </c>
       <c r="F28">
-        <v>59.33146984156732</v>
+        <v>59.331469841567319</v>
       </c>
       <c r="G28">
-        <v>59.54746655755589</v>
+        <v>59.547466557555893</v>
       </c>
       <c r="H28">
         <v>59.86977095515649</v>
@@ -2752,129 +2804,129 @@
         <v>59.62602323794389</v>
       </c>
       <c r="J28">
-        <v>59.88461816774982</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>59.884618167749821</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>52.08574319336238</v>
+        <v>52.085743193362383</v>
       </c>
       <c r="C29">
-        <v>56.22431404667287</v>
+        <v>56.224314046672873</v>
       </c>
       <c r="D29">
-        <v>57.69971096959482</v>
+        <v>57.699710969594818</v>
       </c>
       <c r="E29">
-        <v>57.76039088193278</v>
+        <v>57.760390881932778</v>
       </c>
       <c r="F29">
-        <v>59.49643887038212</v>
+        <v>59.496438870382121</v>
       </c>
       <c r="G29">
-        <v>59.87207642295049</v>
+        <v>59.872076422950492</v>
       </c>
       <c r="H29">
-        <v>60.67991233796658</v>
+        <v>60.679912337966577</v>
       </c>
       <c r="I29">
-        <v>60.85014124885954</v>
+        <v>60.850141248859543</v>
       </c>
       <c r="J29">
-        <v>61.6757171997214</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>61.675717199721397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>52.08574319336238</v>
+        <v>52.085743193362383</v>
       </c>
       <c r="C30">
-        <v>55.54148571870898</v>
+        <v>55.541485718708977</v>
       </c>
       <c r="D30">
-        <v>56.07512466409251</v>
+        <v>56.075124664092513</v>
       </c>
       <c r="E30">
-        <v>58.49543549379979</v>
+        <v>58.495435493799789</v>
       </c>
       <c r="F30">
-        <v>59.1005132012266</v>
+        <v>59.100513201226597</v>
       </c>
       <c r="G30">
-        <v>60.1339775643484</v>
+        <v>60.133977564348399</v>
       </c>
       <c r="H30">
-        <v>60.39372693580525</v>
+        <v>60.393726935805248</v>
       </c>
       <c r="I30">
-        <v>61.17242856892091</v>
+        <v>61.172428568920907</v>
       </c>
       <c r="J30">
-        <v>60.17467675580507</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>60.174676755805073</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>52.08574319336238</v>
+        <v>52.085743193362383</v>
       </c>
       <c r="C31">
         <v>53.94917596232262</v>
       </c>
       <c r="D31">
-        <v>57.58781893265956</v>
+        <v>57.587818932659559</v>
       </c>
       <c r="E31">
-        <v>58.49543549379979</v>
+        <v>58.495435493799789</v>
       </c>
       <c r="F31">
-        <v>58.95849638511646</v>
+        <v>58.958496385116462</v>
       </c>
       <c r="G31">
-        <v>59.423278692386</v>
+        <v>59.423278692385999</v>
       </c>
       <c r="H31">
-        <v>60.63360645052253</v>
+        <v>60.633606450522528</v>
       </c>
       <c r="I31">
-        <v>60.3049881227137</v>
+        <v>60.304988122713702</v>
       </c>
       <c r="J31" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>52.08574319336238</v>
+        <v>52.085743193362383</v>
       </c>
       <c r="C32">
-        <v>57.5584114101317</v>
+        <v>57.558411410131697</v>
       </c>
       <c r="D32">
-        <v>58.70028399218894</v>
+        <v>58.700283992188943</v>
       </c>
       <c r="E32">
-        <v>58.61421319454644</v>
+        <v>58.614213194546437</v>
       </c>
       <c r="F32">
-        <v>59.71448489107647</v>
+        <v>59.714484891076467</v>
       </c>
       <c r="G32">
-        <v>61.05611572913386</v>
+        <v>61.056115729133857</v>
       </c>
       <c r="H32">
-        <v>60.14842516252411</v>
+        <v>60.148425162524113</v>
       </c>
       <c r="I32" t="s">
         <v>119</v>
@@ -2883,27 +2935,27 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>52.97657594896231</v>
+        <v>52.976575948962306</v>
       </c>
       <c r="C33">
-        <v>56.0263512120951</v>
+        <v>56.026351212095101</v>
       </c>
       <c r="D33">
-        <v>57.18758972362191</v>
+        <v>57.187589723621912</v>
       </c>
       <c r="E33">
         <v>57.84129743171674</v>
       </c>
       <c r="F33">
-        <v>59.42184417909195</v>
+        <v>59.421844179091948</v>
       </c>
       <c r="G33">
-        <v>59.63968526931571</v>
+        <v>59.639685269315713</v>
       </c>
       <c r="H33" t="s">
         <v>119</v>
@@ -2915,24 +2967,24 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>52.08574319336238</v>
+        <v>52.085743193362383</v>
       </c>
       <c r="C34">
-        <v>54.9475972149757</v>
+        <v>54.947597214975701</v>
       </c>
       <c r="D34">
-        <v>55.79754634169544</v>
+        <v>55.797546341695437</v>
       </c>
       <c r="E34">
-        <v>58.40592186425157</v>
+        <v>58.405921864251567</v>
       </c>
       <c r="F34">
-        <v>59.02591850993642</v>
+        <v>59.025918509936417</v>
       </c>
       <c r="G34" t="s">
         <v>119</v>
@@ -2947,21 +2999,21 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>52.08574319336238</v>
+        <v>52.085743193362383</v>
       </c>
       <c r="C35">
-        <v>54.17296003619314</v>
+        <v>54.172960036193139</v>
       </c>
       <c r="D35">
-        <v>54.62267995387523</v>
+        <v>54.622679953875227</v>
       </c>
       <c r="E35">
-        <v>56.12332431077232</v>
+        <v>56.123324310772318</v>
       </c>
       <c r="F35" t="s">
         <v>119</v>
@@ -2979,18 +3031,18 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>52.08574319336238</v>
+        <v>52.085743193362383</v>
       </c>
       <c r="C36">
-        <v>53.38110869788209</v>
+        <v>53.381108697882091</v>
       </c>
       <c r="D36">
-        <v>55.01430208314864</v>
+        <v>55.014302083148642</v>
       </c>
       <c r="E36" t="s">
         <v>119</v>
@@ -3011,15 +3063,15 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>52.08574319336238</v>
+        <v>52.085743193362383</v>
       </c>
       <c r="C37">
-        <v>54.69512287522434</v>
+        <v>54.695122875224342</v>
       </c>
       <c r="D37" t="s">
         <v>119</v>
@@ -3043,12 +3095,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>52.08574319336238</v>
+        <v>52.085743193362383</v>
       </c>
       <c r="C38" t="s">
         <v>119</v>
@@ -3076,6 +3128,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:J38">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/wip/res/optimal_N2_K1.xlsx
+++ b/wip/res/optimal_N2_K1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tutorial\Desktop\FPL_Python_Optimization\wip\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA49A228-4B9F-41EF-AE1E-770209F2FC3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1588166F-6F1B-460B-932C-B3F1697080B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="1" r:id="rId1"/>
@@ -387,7 +387,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,13 +403,1064 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="176">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6E98CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBCEE8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1E9F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCEBEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFBFE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA1A3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9597"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBB5B8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9FA1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5A8AC6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD2DEF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCFCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCFAFD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAABAE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAADAF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA9AB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF98688"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF98D8F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90B0D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4F7FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F7FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC6C8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAAFB1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD5D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAB0B3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBB4B6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD2D4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAEC5E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7EDF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCF6F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF2FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCF4F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCECEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6D6EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4F6FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFF3FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9EEF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCDCDF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCDFE2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD2D5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4DFF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4EBF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F5FB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EAF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5ECF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBCACD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAAC2E2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBACDE7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7D7EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCCFE8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5D5EB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCF2F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCEFF2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCEAED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF97B5DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFACC4E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCF1F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD4D7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCDBDE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC0C2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBACEE8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC9CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBCCCF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBBBD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD7D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99B6DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2C8E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE0E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD0D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9C9F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9EB9DD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC3D4EB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCBD9ED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0DDEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA6A9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAAFB2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBABD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFC6E4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBED0E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F6FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAB1B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAACAF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9EFF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBB6B8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBB6B9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF82A6D4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAE4F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBB8BA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD1D4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE6E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC2C5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAB2B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBB9BB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBCFD1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC4C6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCDEE1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC5C7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC8CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAACAE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9787A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF0F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD6D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBB7B9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBB9BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE3E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9EA0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9092"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9A9D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F3FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCF7FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFAFE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE9EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCDAEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4E0F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCF0F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD8DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9FAFE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD1D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7D6EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE1E4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD4D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBBBE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9B9E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0D2EA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBB3B6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBFC2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA3A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5E0F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC1C3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA2A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAB2B5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFD1E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8EEF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA7AA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA8C0E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDFE7F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBCDD0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8BACD7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA4BEE0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDCFE8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAB0B2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA6A8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9AB7DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBCCCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBFC1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9898B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8CADD7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6EDF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC5C8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCDDAEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC8CA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBB7BA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8696B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD0E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9D8ED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCF3F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD9DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF97F81"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAAAAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECF0F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBCBCD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9799"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA5A7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCEEF1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBEC1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF98486"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC8D7EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE3EAF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBCBCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC1C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA8C1E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCAD9ED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB1C7E4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -439,10 +1490,538 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="82" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="84" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="85" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="88" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="90" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="91" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="92" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="93" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="94" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="95" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="96" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="97" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="98" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="99" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="100" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="101" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="102" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="103" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="104" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="105" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="106" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="107" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="108" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="109" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="110" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="111" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="112" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="113" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="114" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="115" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="116" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="117" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="118" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="119" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="120" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="121" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="122" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="123" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="124" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="125" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="126" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="127" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="128" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="129" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="130" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="131" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="132" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="133" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="134" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="135" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="136" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="137" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="138" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="139" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="140" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="141" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="142" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="143" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="144" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="145" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="146" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="147" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="148" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="149" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="150" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="151" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="152" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="153" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="154" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="155" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="156" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="157" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="158" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="159" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="160" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="161" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="162" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="163" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="164" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="165" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="166" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="167" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="168" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="169" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="170" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="171" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="172" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="173" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="174" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="175" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -782,11 +2361,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -826,31 +2403,31 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="10" t="s">
         <v>117</v>
       </c>
     </row>
@@ -858,31 +2435,31 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="19" t="s">
         <v>97</v>
       </c>
     </row>
@@ -890,31 +2467,31 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="28" t="s">
         <v>48</v>
       </c>
     </row>
@@ -922,31 +2499,31 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="34" t="s">
         <v>48</v>
       </c>
     </row>
@@ -954,31 +2531,31 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="42" t="s">
         <v>86</v>
       </c>
     </row>
@@ -986,31 +2563,31 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="42" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1018,31 +2595,31 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="56" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1050,31 +2627,31 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="62" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1082,31 +2659,31 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="10" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1114,31 +2691,31 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="8" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1146,31 +2723,31 @@
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="79" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1178,31 +2755,31 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="84" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1210,31 +2787,31 @@
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="77" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1242,31 +2819,31 @@
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="95" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1274,31 +2851,31 @@
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="102" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1306,31 +2883,31 @@
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="106" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1338,31 +2915,31 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="110" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1370,31 +2947,31 @@
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="111" t="s">
         <v>90</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="36" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1402,31 +2979,31 @@
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="117" t="s">
         <v>105</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="118" t="s">
         <v>90</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="120" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1434,31 +3011,31 @@
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="124" t="s">
         <v>115</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="125" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1466,31 +3043,31 @@
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="126" t="s">
         <v>81</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="127" t="s">
         <v>107</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="128" t="s">
         <v>107</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="129" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1498,31 +3075,31 @@
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="130" t="s">
         <v>91</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="131" t="s">
         <v>107</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="132" t="s">
         <v>116</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="133" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1530,31 +3107,31 @@
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="134" t="s">
         <v>61</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="136" t="s">
         <v>107</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="17" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1562,31 +3139,31 @@
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="118" t="s">
         <v>112</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="25" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1594,31 +3171,31 @@
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="141" t="s">
         <v>63</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="142" t="s">
         <v>62</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="120" t="s">
         <v>107</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="143" t="s">
         <v>107</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="144" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1626,31 +3203,31 @@
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="146" t="s">
         <v>82</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="147" t="s">
         <v>82</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="148" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1658,31 +3235,31 @@
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="150" t="s">
         <v>65</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="105" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1690,31 +3267,31 @@
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="152" t="s">
         <v>65</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="153" t="s">
         <v>82</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="154" t="s">
         <v>82</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="155" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1722,31 +3299,31 @@
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="156" t="s">
         <v>81</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="158" t="s">
         <v>82</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="159" t="s">
         <v>82</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="161" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1754,149 +3331,188 @@
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="162" t="s">
         <v>82</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="158" t="s">
         <v>82</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="163" t="s">
         <v>93</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="165" t="s">
         <v>93</v>
       </c>
+      <c r="J31" s="167"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="168" t="s">
         <v>101</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="169" t="s">
         <v>93</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="170" t="s">
         <v>93</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="15" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I32" s="167"/>
+      <c r="J32" s="167"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="171" t="s">
         <v>69</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="172" t="s">
         <v>93</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="173" t="s">
         <v>102</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="174" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="167"/>
+      <c r="I33" s="167"/>
+      <c r="J33" s="167"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="40" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="167"/>
+      <c r="H34" s="167"/>
+      <c r="I34" s="167"/>
+      <c r="J34" s="167"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="175" t="s">
         <v>94</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="176" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F35" s="167"/>
+      <c r="G35" s="167"/>
+      <c r="H35" s="167"/>
+      <c r="I35" s="167"/>
+      <c r="J35" s="167"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="149" t="s">
         <v>72</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="177" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E36" s="167"/>
+      <c r="F36" s="167"/>
+      <c r="G36" s="167"/>
+      <c r="H36" s="167"/>
+      <c r="I36" s="167"/>
+      <c r="J36" s="167"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="49" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D37" s="167"/>
+      <c r="E37" s="167"/>
+      <c r="F37" s="167"/>
+      <c r="G37" s="167"/>
+      <c r="H37" s="167"/>
+      <c r="I37" s="167"/>
+      <c r="J37" s="167"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="C38" s="167"/>
+      <c r="D38" s="167"/>
+      <c r="E38" s="167"/>
+      <c r="F38" s="167"/>
+      <c r="G38" s="167"/>
+      <c r="H38" s="167"/>
+      <c r="I38" s="167"/>
+      <c r="J38" s="167"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="166"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1907,7 +3523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
